--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.05571936959837145</v>
+        <v>-1.749529265654429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.03924758515505913</v>
+        <v>0.8615440086535034</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.003457041179460336</v>
+        <v>-0.8699571331276832</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.003457041179460336</v>
+        <v>-0.8699571331276833</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.05226232841891113</v>
+        <v>-0.8795721325267457</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.9999999999999972</v>
+        <v>-1.000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9847483477376662</v>
+        <v>3.604823524698546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.929028978139295</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9290289781392949</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.929028978139295</v>
+        <v>1.855294259044118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.613014743263848</v>
+        <v>2.793037137935192</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.613014743263849</v>
+        <v>-2.793037137935192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.453177427554647</v>
+        <v>-2.761548014903262</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.453177427554647</v>
+        <v>2.761548014903262</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1176410777834259</v>
+        <v>1.705781018388694</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.2232841891204874</v>
+        <v>-0.03365249789671901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.03538383324860183</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4003445374784709</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.534313529105413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.4636502287747834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-0.008893874444132883</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-5.110747457739662e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-5.110747457739662e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>9.050940518556152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.420030503304516</v>
+        <v>-2.844116822242711</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.370615149974569</v>
+        <v>-0.7966027002123338</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.370615149974569</v>
+        <v>0.7966027002123338</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.9285205897305566</v>
+        <v>4.192500300468752</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6729028978139306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6729028978139306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.142755465175393</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.142755465175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04514489069649198</v>
+        <v>0.008893874444132883</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.0524656837824096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-1.125037616605582e-15</v>
+        <v>2.881211122307894e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-6.840061006609031</v>
+        <v>5.688233644485422</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.051753940010164</v>
+        <v>-0.2072032370497985</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.051753940010165</v>
+        <v>0.2072032370497985</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02562277580071167</v>
+        <v>-0.005047874684507852</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02562277580071167</v>
+        <v>0.005047874684507852</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.6308083375699016</v>
+        <v>0.1139377428788915</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1049313675648198</v>
+        <v>-0.02067224870798434</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1049313675648198</v>
+        <v>0.02067224870798434</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.122013218098627</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.122013218098627</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.03538383324860183</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.8931367564819548</v>
+        <v>2.742558391090113</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.024911032028468</v>
+        <v>3.709466768158342</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.392475851550572</v>
+        <v>-0.8653499459156319</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-1.032290372981856</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-5.110747457739662e-16</v>
+        <v>1.799447137534562</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.3941026944585646</v>
+        <v>-1.101037618685153</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>-0.7671567645527064</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.999999999999997</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.01647178444331231</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.01647178444331231</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-0.01647178444331231</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.01647178444331231</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.142755465175393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.04514489069649199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>9.050940518556152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.749529265654429</v>
+        <v>0.2644993817742729</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.8615440086535034</v>
+        <v>-0.1561110347869477</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.8699571331276832</v>
+        <v>0.1409265432143405</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.8699571331276833</v>
+        <v>0.1409265432143406</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.8795721325267457</v>
+        <v>0.1235728385599323</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.000000000000005</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.604823524698546</v>
+        <v>0.5681096754134138</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.855294259044117</v>
+        <v>0.8326090571876869</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.855294259044117</v>
+        <v>0.8326090571876869</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.855294259044118</v>
+        <v>0.8326090571876869</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.793037137935192</v>
+        <v>1.720243819550394</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-2.793037137935192</v>
+        <v>-1.720243819550394</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-2.761548014903262</v>
+        <v>-1.663410436807207</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.761548014903262</v>
+        <v>1.663410436807206</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.705781018388694</v>
+        <v>0.5627589498116394</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.03365249789671901</v>
+        <v>-0.0607379662904288</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.006970874564320367</v>
+        <v>0.01258143587444597</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.4106806618324632</v>
+        <v>0.01865523250348885</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.4003445374784709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.534313529105413</v>
+        <v>0.2342171671523991</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-6.477584094111134e-14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.2408549591826183</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.008893874444132883</v>
+        <v>1.010592990549451</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1.026645167354779</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.2408549591826183</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.2408549591826182</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.2408549591826182</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-2.844116822242711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.7966027002123338</v>
+        <v>-1.678609389800341</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.7966027002123338</v>
+        <v>1.678609389800341</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4.192500300468752</v>
+        <v>2.496865487096881</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.060414246224113</v>
+        <v>0.1014613265461113</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.060414246224113</v>
+        <v>0.1014613265461113</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.008893874444132883</v>
+        <v>-1.010592990549451</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.881211122307894e-16</v>
+        <v>2.364286060619462e-15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.688233644485422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.2072032370497985</v>
+        <v>-0.3739723353024972</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.2072032370497985</v>
+        <v>0.3739723353024972</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.005047874684507852</v>
+        <v>-0.009110694943564321</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.005047874684507852</v>
+        <v>0.009110694943564319</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.1139377428788915</v>
+        <v>0.2056414001547375</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.02067224870798434</v>
+        <v>-0.03731046500697907</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.02067224870798434</v>
+        <v>0.03731046500697907</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.02403749849765644</v>
+        <v>0.04338426163602057</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.02403749849765644</v>
+        <v>0.04338426163602057</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.006970874564320367</v>
+        <v>0.01258143587444597</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.4106806618324632</v>
+        <v>0.01865523250348885</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>0.2408549591826183</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.032290372981856</v>
+        <v>0.836491948604128</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.032290372981856</v>
+        <v>0.836491948604128</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2.742558391090113</v>
+        <v>1.388281910932199</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>3.709466768158342</v>
+        <v>1.56183341889674</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.8653499459156319</v>
+        <v>-1.561833418896741</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.032290372981856</v>
+        <v>-0.05070174043196746</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.799447137534562</v>
+        <v>0.1678103240081669</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-1.101037618685153</v>
+        <v>-0.9605709368831467</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.7671567645527064</v>
+        <v>-0.1171085835761996</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>0.2408549591826183</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>-0.2408549591826183</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-2.611073274307932</v>
+        <v>0.4206104165612206</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-2.611073274307932</v>
+        <v>0.4206104165612206</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-2.611073274307932</v>
+        <v>0.4206104165612206</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-2.611073274307932</v>
+        <v>0.4206104165612206</v>
       </c>
     </row>
     <row r="230" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.2644993817742729</v>
+        <v>-1.749529265654429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.1561110347869477</v>
+        <v>0.8615440086535034</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.1409265432143405</v>
+        <v>-0.8699571331276832</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.1409265432143406</v>
+        <v>-0.8699571331276833</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.1235728385599323</v>
+        <v>-0.8795721325267457</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>-1.000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.5681096754134138</v>
+        <v>3.604823524698546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.8326090571876869</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.8326090571876869</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.8326090571876869</v>
+        <v>1.855294259044118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.720243819550394</v>
+        <v>2.793037137935192</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.720243819550394</v>
+        <v>-2.793037137935192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.663410436807207</v>
+        <v>-2.761548014903262</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.663410436807206</v>
+        <v>2.761548014903262</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.5627589498116394</v>
+        <v>1.705781018388694</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.0607379662904288</v>
+        <v>-0.03365249789671901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.01258143587444597</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.01865523250348885</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4003445374784709</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.2342171671523991</v>
+        <v>1.534313529105413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-6.477584094111134e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.2408549591826183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.010592990549451</v>
+        <v>-0.008893874444132883</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.026645167354779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.2408549591826183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.2408549591826182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.2408549591826182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-2.844116822242711</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-1.678609389800341</v>
+        <v>-0.7966027002123338</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.678609389800341</v>
+        <v>0.7966027002123338</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.496865487096881</v>
+        <v>4.192500300468752</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1014613265461113</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.1014613265461113</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-1.010592990549451</v>
+        <v>0.008893874444132883</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.364286060619462e-15</v>
+        <v>2.881211122307894e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5.688233644485422</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.3739723353024972</v>
+        <v>-0.2072032370497985</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.3739723353024972</v>
+        <v>0.2072032370497985</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.009110694943564321</v>
+        <v>-0.005047874684507852</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.009110694943564319</v>
+        <v>0.005047874684507852</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.2056414001547375</v>
+        <v>0.1139377428788915</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.03731046500697907</v>
+        <v>-0.02067224870798434</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.03731046500697907</v>
+        <v>0.02067224870798434</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.04338426163602057</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.04338426163602057</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.01258143587444597</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.01865523250348885</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.2408549591826183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.836491948604128</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.836491948604128</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1.388281910932199</v>
+        <v>2.742558391090113</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.56183341889674</v>
+        <v>3.709466768158342</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.561833418896741</v>
+        <v>-0.8653499459156319</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.05070174043196746</v>
+        <v>-1.032290372981856</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.1678103240081669</v>
+        <v>1.799447137534562</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.9605709368831467</v>
+        <v>-1.101037618685153</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.1171085835761996</v>
+        <v>-0.7671567645527064</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.2408549591826183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.2408549591826183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.4206104165612206</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.4206104165612206</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.4206104165612206</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.4206104165612206</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="230" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.749529265654429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.8615440086535034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.8699571331276832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.8699571331276833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.8795721325267457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.604823524698546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.855294259044117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.855294259044117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.855294259044118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.793037137935192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-2.793037137935192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-2.761548014903262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.761548014903262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.705781018388694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.03365249789671901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.006970874564320367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.4106806618324632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.4003445374784709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.534313529105413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.008893874444132883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-2.844116822242711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.7966027002123338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.7966027002123338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4.192500300468752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.060414246224113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.060414246224113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.008893874444132883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.881211122307894e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.688233644485422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.2072032370497985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.2072032370497985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.005047874684507852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.005047874684507852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.1139377428788915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.02067224870798434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.02067224870798434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.02403749849765644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.02403749849765644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.006970874564320367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.4106806618324632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2.742558391090113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>3.709466768158342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.8653499459156319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.799447137534562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-1.101037618685153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.7671567645527064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-2.611073274307932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-2.611073274307932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-2.611073274307932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-2.611073274307932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1.749529265654429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.8615440086535034</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.8699571331276832</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.8699571331276833</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.8795721325267457</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-1.000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3.604823524698546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.855294259044117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.855294259044118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2.793037137935192</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-2.793037137935192</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-2.761548014903262</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2.761548014903262</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.705781018388694</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-0.03365249789671901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4003445374784709</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.534313529105413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-0.008893874444132883</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-2.844116822242711</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-0.7966027002123338</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.7966027002123338</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>4.192500300468752</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1.060414246224113</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.008893874444132883</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2.881211122307894e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5.688233644485422</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-0.2072032370497985</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>0.2072032370497985</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>-0.005047874684507852</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>0.005047874684507852</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.1139377428788915</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>-0.02067224870798434</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>0.02067224870798434</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>0.02403749849765644</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>0.006970874564320367</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>0.4106806618324632</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1.032290372981856</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>2.742558391090113</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>3.709466768158342</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-0.8653499459156319</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-1.032290372981856</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1.799447137534562</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>-1.101037618685153</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>-0.7671567645527064</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>-2.611073274307932</v>
       </c>
     </row>
     <row r="230" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.749529265654429</v>
+        <v>-0.05571936959837145</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.8615440086535034</v>
+        <v>-0.03924758515505913</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.8699571331276832</v>
+        <v>-0.003457041179460336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.8699571331276833</v>
+        <v>-0.003457041179460336</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.8795721325267457</v>
+        <v>-0.05226232841891113</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.000000000000005</v>
+        <v>-0.9999999999999972</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.604823524698546</v>
+        <v>0.9847483477376662</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.855294259044117</v>
+        <v>0.929028978139295</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.855294259044117</v>
+        <v>0.9290289781392949</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.855294259044118</v>
+        <v>0.929028978139295</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.793037137935192</v>
+        <v>1.613014743263848</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-2.793037137935192</v>
+        <v>-1.613014743263849</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-2.761548014903262</v>
+        <v>-1.453177427554647</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.761548014903262</v>
+        <v>1.453177427554647</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.705781018388694</v>
+        <v>0.1176410777834259</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.03365249789671901</v>
+        <v>-0.2232841891204874</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.006970874564320367</v>
+        <v>0.03538383324860183</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.4106806618324632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.4003445374784709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.534313529105413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.4636502287747834</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.008893874444132883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-5.110747457739662e-16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-5.110747457739662e-16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>9.050940518556152</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-2.844116822242711</v>
+        <v>3.420030503304516</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.7966027002123338</v>
+        <v>-3.370615149974569</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.7966027002123338</v>
+        <v>3.370615149974569</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4.192500300468752</v>
+        <v>0.9285205897305566</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-0.6729028978139306</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.6729028978139306</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.060414246224113</v>
+        <v>0.142755465175393</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.142755465175393</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.060414246224113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.008893874444132883</v>
+        <v>0.04514489069649198</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.0524656837824096</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.881211122307894e-16</v>
+        <v>-1.125037616605582e-15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.688233644485422</v>
+        <v>-6.840061006609031</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.2072032370497985</v>
+        <v>-1.051753940010164</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.2072032370497985</v>
+        <v>1.051753940010165</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.005047874684507852</v>
+        <v>-0.02562277580071167</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.005047874684507852</v>
+        <v>0.02562277580071167</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.1139377428788915</v>
+        <v>0.6308083375699016</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.02067224870798434</v>
+        <v>-0.1049313675648198</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.02067224870798434</v>
+        <v>0.1049313675648198</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.02403749849765644</v>
+        <v>0.122013218098627</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.02403749849765644</v>
+        <v>0.122013218098627</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.006970874564320367</v>
+        <v>0.03538383324860183</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.4106806618324632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2.742558391090113</v>
+        <v>0.8931367564819548</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>3.709466768158342</v>
+        <v>1.024911032028468</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.8653499459156319</v>
+        <v>-4.392475851550572</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.032290372981856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.799447137534562</v>
+        <v>-5.110747457739662e-16</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-1.101037618685153</v>
+        <v>-0.3941026944585646</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.7671567645527064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.000000000000005</v>
+        <v>0.999999999999997</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-2.611073274307932</v>
+        <v>-0.01647178444331231</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-2.611073274307932</v>
+        <v>-0.01647178444331231</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-2.611073274307932</v>
+        <v>-0.01647178444331231</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-2.611073274307932</v>
+        <v>-0.01647178444331231</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.142755465175393</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>0.04514489069649199</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>9.050940518556152</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsPacidpropionici.xlsx
+++ b/iFermentAsPacidpropionici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fluxes</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>FMNRx</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.05571936959837272</v>
+        <v>-3.824707676662375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.03924758515505896</v>
+        <v>1.845246568376965</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1252,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.003457041179460795</v>
+        <v>-1.88795119471147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1260,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.003457041179460795</v>
+        <v>-1.887951194711471</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1268,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.05226232841891193</v>
+        <v>-1.936756481950905</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1276,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.000000000000004</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1308,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9847483477376746</v>
+        <v>6.638230808333706</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1324,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9290289781393019</v>
+        <v>2.813523131671331</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9290289781393019</v>
+        <v>2.813523131671331</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9290289781393019</v>
+        <v>2.813523131671331</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1348,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.61301474326386</v>
+        <v>3.497508896795991</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1356,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.61301474326386</v>
+        <v>-3.497508896795991</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.453177427554658</v>
+        <v>-3.337671581086842</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1372,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.453177427554658</v>
+        <v>3.337671581086842</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1380,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1176410777834271</v>
+        <v>2.002135231316723</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1388,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.223284189120489</v>
+        <v>-0.2232841891194194</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1444,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.03538383324860207</v>
+        <v>0.03538383324859017</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1460,7 +1466,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>9.944937078910654e-13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1732,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.3489578037619584</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1740,7 +1746,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.04514489069649231</v>
+        <v>-1.929639044228156</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1748,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-1.884494153531679</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1764,7 +1770,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>3.23221256092026e-16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1772,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3.23221256092026e-16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2076,7 +2082,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.42003050330454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2084,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.370615149974595</v>
+        <v>-3.370615149973459</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2092,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.370615149974595</v>
+        <v>3.370615149973459</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2100,7 +2106,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.03538383324860208</v>
+        <v>0.0353838332495847</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2108,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6729028978139335</v>
+        <v>-0.6729028978137079</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2116,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6729028978139335</v>
+        <v>0.6729028978137079</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2140,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1427554651753946</v>
+        <v>2.027249618707025</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2148,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.1427554651753946</v>
+        <v>2.027249618707025</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2164,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04514489069649231</v>
+        <v>1.929639044228156</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2172,7 +2178,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.05246568378240998</v>
+        <v>0.05246568378139783</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2212,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.124108399098941e-15</v>
+        <v>8.968404231307514e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2220,7 +2226,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-6.84006100660908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2228,7 +2234,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.051753940010172</v>
+        <v>-1.051753940009818</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2236,7 +2242,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.051753940010172</v>
+        <v>1.051753940009818</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2244,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02562277580071185</v>
+        <v>-0.02562277580070323</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2252,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02562277580071185</v>
+        <v>0.02562277580070323</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2268,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.6308083375699061</v>
+        <v>0.6308083375686994</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2276,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1049313675648213</v>
+        <v>-0.1049313675647853</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2284,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1049313675648213</v>
+        <v>0.1049313675647853</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2300,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1220132180986278</v>
+        <v>0.1220132180985868</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1220132180986278</v>
+        <v>0.1220132180985868</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2332,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.03538383324860207</v>
+        <v>0.03538383324859017</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2348,7 +2354,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>9.944937078910654e-13</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2628,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.024911032028473</v>
+        <v>4.444941535330522</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2660,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.392475851550603</v>
+        <v>-4.392475851549125</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2692,7 +2698,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-1.884494153531679</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2708,7 +2714,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-3.869649211997982</v>
+        <v>-2.334112862225468</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2724,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.3489578037620756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2732,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3.869649211997982</v>
+        <v>4.218607015757147</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2844,7 +2850,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>0.3489578037619583</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2932,7 +2938,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.01647178444331374</v>
+        <v>-5.66995424503934</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2940,7 +2946,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.01647178444331374</v>
+        <v>-5.66995424503934</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2948,7 +2954,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-0.01647178444331374</v>
+        <v>-5.66995424503934</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2956,7 +2962,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.01647178444331374</v>
+        <v>-5.66995424503934</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3036,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.4636502287747858</v>
+        <v>2.348144382307304</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3044,7 +3050,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.1427554651753946</v>
+        <v>2.027249618707026</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>4.762785968479943</v>
+        <v>5.111743772238803</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.8931367564819602</v>
+        <v>-0.8931367564816557</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3116,7 +3122,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.4636502287747859</v>
+        <v>-2.348144382307304</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3133,6 +3139,22 @@
       </c>
       <c r="B251">
         <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>0.3489578037619584</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>0.3489578037619584</v>
       </c>
     </row>
   </sheetData>
